--- a/xlsx/亚洲_intext.xlsx
+++ b/xlsx/亚洲_intext.xlsx
@@ -29,7 +29,7 @@
     <t>亚细亚 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_亚洲</t>
+    <t>体育运动_体育运动_古罗马_亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%B4%B2%E4%BA%BA</t>
